--- a/01. PYTHON/02. LIBRARIES/NUMPY/Numpy.xlsx
+++ b/01. PYTHON/02. LIBRARIES/NUMPY/Numpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b16b8fa2253ce71/Professional/04. PYTHON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\01. PYTHON\02. LIBRARIES\NUMPY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{A940381C-A5A2-43D7-A038-1782E358DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E9B5EB-4FE9-495D-B5C3-6981FD85B87C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336766E-60D5-4584-B2D5-80A1EC4357AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{9A27C32A-434C-4525-A79B-03C13A8EB250}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A27C32A-434C-4525-A79B-03C13A8EB250}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Arrays" sheetId="1" r:id="rId1"/>
@@ -3576,9 +3576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FC2B5-07E3-46FF-B41D-DDA65C1DE6CA}">
   <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6914,7 +6914,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7694,8 +7694,8 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8178,7 +8178,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9082,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF543ACA-008D-4FD4-B4F7-282C324841DF}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
